--- a/صيدليات دكتور مصطفي طلعت_2026-01-05_20-00.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-05_20-00.xlsx
@@ -263,6 +263,9 @@
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
+    <t>KERELLA LOTION 30 ML</t>
+  </si>
+  <si>
     <t>L-CARNITINE PLUS 20 F.C. TAB</t>
   </si>
   <si>
@@ -366,6 +369,9 @@
   </si>
   <si>
     <t>3:2</t>
+  </si>
+  <si>
+    <t>SUPOLACK HAIR SHAMPOO 200 ML</t>
   </si>
   <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
@@ -2749,13 +2755,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
@@ -2775,17 +2781,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2801,17 +2807,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>720</v>
+        <v>39</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
-        <v>3</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2833,11 +2839,11 @@
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>41</v>
+        <v>720</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2853,17 +2859,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
-        <v>0.67000000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2871,7 +2877,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2879,17 +2885,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
-        <v>1</v>
+        <v>0.67000000000000004</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2905,13 +2911,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
@@ -2931,13 +2937,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>279</v>
+        <v>34</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
@@ -2963,7 +2969,7 @@
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>67</v>
+        <v>279</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
@@ -2983,13 +2989,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>136.5</v>
+        <v>67</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
@@ -3015,7 +3021,7 @@
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>380</v>
+        <v>136.5</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
@@ -3035,13 +3041,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
@@ -3061,13 +3067,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
@@ -3087,13 +3093,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
@@ -3113,13 +3119,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
@@ -3145,7 +3151,7 @@
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
@@ -3165,13 +3171,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
@@ -3191,17 +3197,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>21.620000000000001</v>
+        <v>102</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3209,7 +3215,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3217,17 +3223,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>75</v>
+        <v>21.620000000000001</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3243,13 +3249,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
@@ -3269,17 +3275,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3287,7 +3293,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3295,17 +3301,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3321,13 +3327,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
@@ -3347,17 +3353,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>14.1</v>
+        <v>18</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3365,7 +3371,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3373,17 +3379,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>60</v>
+        <v>14.1</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
-        <v>1</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3405,7 +3411,7 @@
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>33.600000000000001</v>
+        <v>60</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
@@ -3431,7 +3437,7 @@
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>138</v>
+        <v>33.600000000000001</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
@@ -3451,13 +3457,13 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
@@ -3469,7 +3475,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3477,17 +3483,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3495,7 +3501,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3503,17 +3509,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3529,17 +3535,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>168</v>
+        <v>149.5</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3555,17 +3561,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3581,17 +3587,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3607,17 +3613,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>273</v>
+        <v>28</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3633,13 +3639,13 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="10">
@@ -3659,17 +3665,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3685,17 +3691,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3717,7 +3723,7 @@
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="10">
@@ -3737,17 +3743,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="10">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3769,7 +3775,7 @@
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="10">
@@ -3789,17 +3795,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3815,17 +3821,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3841,17 +3847,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3867,17 +3873,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3893,17 +3899,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="10">
-        <v>0.66000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3911,7 +3917,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B112" s="7">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3919,17 +3925,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>27.280000000000001</v>
+        <v>0</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="10">
-        <v>11</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3937,7 +3943,7 @@
         <v>110</v>
       </c>
       <c t="s" r="B113" s="7">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3945,17 +3951,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10">
-        <v>1</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -3963,7 +3969,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B114" s="7">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3971,17 +3977,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>245</v>
+        <v>27.280000000000001</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -4003,7 +4009,7 @@
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10">
@@ -4023,13 +4029,13 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>23.5</v>
+        <v>245</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="10">
@@ -4041,7 +4047,7 @@
         <v>114</v>
       </c>
       <c t="s" r="B117" s="7">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -4049,13 +4055,13 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="10">
@@ -4067,7 +4073,7 @@
         <v>115</v>
       </c>
       <c t="s" r="B118" s="7">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4075,13 +4081,13 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>50</v>
+        <v>23.5</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="10">
@@ -4093,7 +4099,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B119" s="7">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4101,13 +4107,13 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="10">
@@ -4119,7 +4125,7 @@
         <v>117</v>
       </c>
       <c t="s" r="B120" s="7">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -4127,17 +4133,17 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="10">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" ht="24.75" customHeight="1">
@@ -4145,7 +4151,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B121" s="7">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4153,17 +4159,17 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="10">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -4171,7 +4177,7 @@
         <v>119</v>
       </c>
       <c t="s" r="B122" s="7">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -4179,17 +4185,17 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M122" s="9"/>
       <c r="N122" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" ht="25.5" customHeight="1">
@@ -4197,7 +4203,7 @@
         <v>120</v>
       </c>
       <c t="s" r="B123" s="7">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -4205,17 +4211,17 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M123" s="9"/>
       <c r="N123" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" ht="24.75" customHeight="1">
@@ -4223,7 +4229,7 @@
         <v>121</v>
       </c>
       <c t="s" r="B124" s="7">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -4231,17 +4237,17 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="M124" s="9"/>
       <c r="N124" s="10">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" ht="25.5" customHeight="1">
@@ -4249,7 +4255,7 @@
         <v>122</v>
       </c>
       <c t="s" r="B125" s="7">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -4257,13 +4263,13 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M125" s="9"/>
       <c r="N125" s="10">
@@ -4275,7 +4281,7 @@
         <v>123</v>
       </c>
       <c t="s" r="B126" s="7">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -4283,17 +4289,17 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>8</v>
+        <v>159</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M126" s="9"/>
       <c r="N126" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -4301,7 +4307,7 @@
         <v>124</v>
       </c>
       <c t="s" r="B127" s="7">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -4309,13 +4315,13 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="M127" s="9"/>
       <c r="N127" s="10">
@@ -4327,7 +4333,7 @@
         <v>125</v>
       </c>
       <c t="s" r="B128" s="7">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -4335,13 +4341,13 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>153</v>
+        <v>8</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M128" s="9"/>
       <c r="N128" s="10">
@@ -4353,7 +4359,7 @@
         <v>126</v>
       </c>
       <c t="s" r="B129" s="7">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -4361,13 +4367,13 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M129" s="9"/>
       <c r="N129" s="10">
@@ -4379,7 +4385,7 @@
         <v>127</v>
       </c>
       <c t="s" r="B130" s="7">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -4387,13 +4393,13 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M130" s="9"/>
       <c r="N130" s="10">
@@ -4405,7 +4411,7 @@
         <v>128</v>
       </c>
       <c t="s" r="B131" s="7">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -4413,13 +4419,13 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M131" s="9"/>
       <c r="N131" s="10">
@@ -4439,13 +4445,13 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c t="s" r="H132" s="8">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="M132" s="9"/>
       <c r="N132" s="10">
@@ -4453,37 +4459,89 @@
       </c>
     </row>
     <row r="133" ht="25.5" customHeight="1">
-      <c r="K133" s="11">
-        <v>11850.049999999999</v>
-      </c>
-      <c r="L133" s="11"/>
-      <c r="M133" s="11"/>
-      <c r="N133" s="11"/>
-    </row>
-    <row r="134" ht="17.25" customHeight="1">
-      <c t="s" r="A134" s="12">
+      <c r="A133" s="6">
+        <v>130</v>
+      </c>
+      <c t="s" r="B133" s="7">
         <v>169</v>
       </c>
-      <c r="B134" s="12"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="12"/>
-      <c t="s" r="F134" s="13">
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c t="s" r="H133" s="8">
+        <v>146</v>
+      </c>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="8"/>
+      <c r="L133" s="9">
+        <v>20</v>
+      </c>
+      <c r="M133" s="9"/>
+      <c r="N133" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" ht="24.75" customHeight="1">
+      <c r="A134" s="6">
+        <v>131</v>
+      </c>
+      <c t="s" r="B134" s="7">
         <v>170</v>
       </c>
-      <c r="G134" s="13"/>
-      <c r="H134" s="14"/>
-      <c t="s" r="I134" s="15">
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c t="s" r="H134" s="8">
+        <v>11</v>
+      </c>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="8"/>
+      <c r="L134" s="9">
+        <v>300</v>
+      </c>
+      <c r="M134" s="9"/>
+      <c r="N134" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" ht="26.25" customHeight="1">
+      <c r="K135" s="11">
+        <v>12030.549999999999</v>
+      </c>
+      <c r="L135" s="11"/>
+      <c r="M135" s="11"/>
+      <c r="N135" s="11"/>
+    </row>
+    <row r="136" ht="16.5" customHeight="1">
+      <c t="s" r="A136" s="12">
         <v>171</v>
       </c>
-      <c r="J134" s="15"/>
-      <c r="K134" s="15"/>
-      <c r="L134" s="15"/>
-      <c r="M134" s="15"/>
-      <c r="N134" s="15"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c t="s" r="F136" s="13">
+        <v>172</v>
+      </c>
+      <c r="G136" s="13"/>
+      <c r="H136" s="14"/>
+      <c t="s" r="I136" s="15">
+        <v>173</v>
+      </c>
+      <c r="J136" s="15"/>
+      <c r="K136" s="15"/>
+      <c r="L136" s="15"/>
+      <c r="M136" s="15"/>
+      <c r="N136" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="398">
+  <mergeCells count="404">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4878,10 +4936,16 @@
     <mergeCell ref="B132:G132"/>
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
-    <mergeCell ref="K133:N133"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="F134:G134"/>
-    <mergeCell ref="I134:N134"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="K135:N135"/>
+    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="I136:N136"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
